--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268866.7472829826</v>
+        <v>268184.8866455276</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4968231.017992426</v>
+        <v>5099699.904991424</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22289395.19939269</v>
+        <v>22412720.69115157</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4041234.827657041</v>
+        <v>3983215.481358743</v>
       </c>
     </row>
     <row r="11">
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.8754206761762339</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1971,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.8754206761762339</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="X20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="Y20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
     </row>
     <row r="21">
@@ -2166,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="G21" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.8754206761762336</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="U22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.977552361264268</v>
+        <v>0.9938926841237894</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="E23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="24">
@@ -2400,22 +2402,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2515,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2634,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>39.58387696184059</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2928,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="31">
@@ -2992,31 +2994,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W35" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3463,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D38" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>39.58387696184059</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.977552361264271</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>23.42587357311022</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>34.86547882798917</v>
+        <v>23.42587357311022</v>
       </c>
       <c r="X42" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,31 +3942,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>22.50809475375158</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>23.42587357311022</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>23.42587357311022</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.42587357311021</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
     </row>
   </sheetData>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.087375423060791</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.031372686577558</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.091307427226234</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.087375423060791</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.031372686577558</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.07951141472990315</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="C20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="D20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="E20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="F20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="G20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="H20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K20" t="n">
-        <v>42.35474834916943</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="L20" t="n">
-        <v>81.54278654139161</v>
+        <v>2.047418929295006</v>
       </c>
       <c r="M20" t="n">
-        <v>120.7308247336138</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="N20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="O20" t="n">
-        <v>158.3355078473624</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="P20" t="n">
-        <v>158.3355078473624</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.2438924791353</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R20" t="n">
-        <v>148.2438924791353</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="S20" t="n">
-        <v>148.2438924791353</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="T20" t="n">
-        <v>148.2438924791353</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="U20" t="n">
-        <v>148.2438924791353</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="V20" t="n">
-        <v>123.1178524655551</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="W20" t="n">
-        <v>83.13413836268582</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="X20" t="n">
-        <v>43.15042425981653</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.88827101547153</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="C21" t="n">
-        <v>83.88827101547153</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="D21" t="n">
-        <v>83.88827101547153</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="E21" t="n">
-        <v>43.90455691260225</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="F21" t="n">
-        <v>43.90455691260225</v>
+        <v>1.083443418895347</v>
       </c>
       <c r="G21" t="n">
-        <v>3.920842809732961</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="H21" t="n">
-        <v>3.920842809732961</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I21" t="n">
-        <v>3.920842809732961</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L21" t="n">
-        <v>3.166710156947247</v>
+        <v>1.063465172012455</v>
       </c>
       <c r="M21" t="n">
-        <v>40.77139327069581</v>
+        <v>2.007663221930055</v>
       </c>
       <c r="N21" t="n">
-        <v>79.95943146291799</v>
+        <v>2.007663221930055</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1474696551402</v>
+        <v>2.007663221930055</v>
       </c>
       <c r="P21" t="n">
-        <v>158.3355078473624</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.3355078473624</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R21" t="n">
-        <v>123.8719851183408</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="S21" t="n">
-        <v>83.88827101547153</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="T21" t="n">
-        <v>83.88827101547153</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="U21" t="n">
-        <v>83.88827101547153</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="V21" t="n">
-        <v>83.88827101547153</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="W21" t="n">
-        <v>83.88827101547153</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="X21" t="n">
-        <v>83.88827101547153</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.88827101547153</v>
+        <v>1.96770672816427</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="C22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="D22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="E22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="F22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="G22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.9637747239988261</v>
       </c>
       <c r="H22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="I22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="J22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="K22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.07951141472990315</v>
       </c>
       <c r="L22" t="n">
-        <v>30.48083516466022</v>
+        <v>1.023709464647503</v>
       </c>
       <c r="M22" t="n">
-        <v>69.6688733568824</v>
+        <v>2.007663221930055</v>
       </c>
       <c r="N22" t="n">
-        <v>108.8569115491046</v>
+        <v>2.991616979212606</v>
       </c>
       <c r="O22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="P22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="R22" t="n">
-        <v>133.1961881840039</v>
+        <v>3.975570736495158</v>
       </c>
       <c r="S22" t="n">
-        <v>133.1961881840039</v>
+        <v>2.971638732329714</v>
       </c>
       <c r="T22" t="n">
-        <v>133.1961881840039</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="U22" t="n">
-        <v>93.21247408113457</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="V22" t="n">
-        <v>53.22875997826529</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="W22" t="n">
-        <v>53.22875997826529</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="X22" t="n">
-        <v>53.22875997826529</v>
+        <v>1.96770672816427</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.15042425981653</v>
+        <v>0.9637747239988261</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>123.1178524655551</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C23" t="n">
-        <v>123.1178524655551</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D23" t="n">
-        <v>123.1178524655551</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E23" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M23" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N23" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V23" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W23" t="n">
-        <v>123.1178524655551</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X23" t="n">
-        <v>123.1178524655551</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y23" t="n">
-        <v>123.1178524655551</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C24" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D24" t="n">
-        <v>83.13413836268582</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E24" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F24" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G24" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L24" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M24" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N24" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U24" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V24" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W24" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X24" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y24" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C25" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D25" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E25" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F25" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G25" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>158.3355078473624</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q25" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="R25" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S25" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T25" t="n">
-        <v>158.3355078473624</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U25" t="n">
-        <v>158.3355078473624</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V25" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W25" t="n">
-        <v>78.36807964162378</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X25" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>83.13413836268582</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="C26" t="n">
-        <v>43.15042425981653</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="D26" t="n">
-        <v>3.166710156947247</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="E26" t="n">
-        <v>3.166710156947247</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="F26" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>40.77139327069581</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M26" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y26" t="n">
-        <v>123.1178524655551</v>
+        <v>100.2684856730375</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C27" t="n">
-        <v>83.13413836268582</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D27" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E27" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F27" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G27" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L27" t="n">
-        <v>79.95943146291799</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M27" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N27" t="n">
-        <v>158.3355078473624</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O27" t="n">
-        <v>158.3355078473624</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P27" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y27" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C28" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D28" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>133.1961881840039</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U28" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V28" t="n">
-        <v>133.1961881840039</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W28" t="n">
-        <v>133.1961881840039</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X28" t="n">
-        <v>133.1961881840039</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.1961881840039</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158.3355078473624</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C29" t="n">
-        <v>158.3355078473624</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D29" t="n">
-        <v>123.1178524655551</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E29" t="n">
-        <v>83.13413836268582</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F29" t="n">
-        <v>83.13413836268582</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="G29" t="n">
-        <v>83.13413836268582</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="H29" t="n">
-        <v>43.15042425981653</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>81.54278654139161</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M29" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N29" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O29" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R29" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S29" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T29" t="n">
-        <v>158.3355078473624</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U29" t="n">
-        <v>158.3355078473624</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V29" t="n">
-        <v>158.3355078473624</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W29" t="n">
-        <v>158.3355078473624</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X29" t="n">
-        <v>158.3355078473624</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y29" t="n">
-        <v>158.3355078473624</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M30" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N30" t="n">
-        <v>79.95943146291799</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O30" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P30" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V30" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W30" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X30" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y30" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>53.22875997826529</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S31" t="n">
-        <v>43.15042425981653</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T31" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U31" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V31" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W31" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X31" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C32" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D32" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E32" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F32" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L32" t="n">
-        <v>81.54278654139161</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M32" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N32" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O32" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T32" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U32" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V32" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W32" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X32" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y32" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.920842809732961</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C33" t="n">
-        <v>3.920842809732961</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D33" t="n">
-        <v>3.920842809732961</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E33" t="n">
-        <v>3.920842809732961</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F33" t="n">
-        <v>3.920842809732961</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G33" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>81.54278654139161</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M33" t="n">
-        <v>120.7308247336138</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N33" t="n">
-        <v>158.3355078473624</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O33" t="n">
-        <v>158.3355078473624</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="P33" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V33" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W33" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X33" t="n">
-        <v>38.38436553875449</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.920842809732961</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C34" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="D34" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="E34" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F34" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="G34" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T34" t="n">
-        <v>118.3517937444931</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U34" t="n">
-        <v>78.36807964162378</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V34" t="n">
-        <v>38.38436553875449</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W34" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X34" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L35" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M35" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N35" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O35" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S35" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T35" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U35" t="n">
-        <v>118.3517937444931</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V35" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y35" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L36" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M36" t="n">
-        <v>79.95943146291799</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N36" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O36" t="n">
-        <v>158.3355078473624</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P36" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T36" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U36" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V36" t="n">
-        <v>78.36807964162378</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W36" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C37" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D37" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E37" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F37" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G37" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>130.4472581485427</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.46354404567346</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>50.47982994280417</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>43.15042425981653</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>43.15042425981653</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U37" t="n">
-        <v>43.15042425981653</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V37" t="n">
-        <v>43.15042425981653</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W37" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X37" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C38" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D38" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E38" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M38" t="n">
-        <v>42.35474834916943</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N38" t="n">
-        <v>79.95943146291799</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O38" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X38" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y38" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C39" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D39" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E39" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F39" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M39" t="n">
-        <v>40.77139327069581</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N39" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O39" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>83.13413836268582</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>43.15042425981653</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U39" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V39" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W39" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X39" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U40" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V40" t="n">
-        <v>118.3517937444931</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W40" t="n">
-        <v>78.36807964162378</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X40" t="n">
-        <v>38.38436553875449</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.30602982030574</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>118.3517937444931</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="C41" t="n">
-        <v>83.13413836268582</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="D41" t="n">
-        <v>43.15042425981653</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="E41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="F41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="G41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K41" t="n">
-        <v>3.166710156947247</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="L41" t="n">
-        <v>42.35474834916943</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="M41" t="n">
-        <v>81.54278654139161</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="N41" t="n">
-        <v>120.7308247336138</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="O41" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="P41" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q41" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R41" t="n">
-        <v>158.3355078473624</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="S41" t="n">
-        <v>158.3355078473624</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="T41" t="n">
-        <v>158.3355078473624</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="U41" t="n">
-        <v>158.3355078473624</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="V41" t="n">
-        <v>158.3355078473624</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="W41" t="n">
-        <v>158.3355078473624</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="X41" t="n">
-        <v>118.3517937444931</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="Y41" t="n">
-        <v>118.3517937444931</v>
+        <v>2.127690606095388</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="C42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="D42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="E42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="F42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="G42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K42" t="n">
-        <v>42.35474834916943</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="L42" t="n">
-        <v>81.54278654139161</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="M42" t="n">
-        <v>81.54278654139161</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="N42" t="n">
-        <v>81.54278654139161</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="O42" t="n">
-        <v>81.54278654139161</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="P42" t="n">
-        <v>119.1474696551402</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.3355078473624</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3517937444931</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S42" t="n">
-        <v>118.3517937444931</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T42" t="n">
-        <v>118.3517937444931</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="U42" t="n">
-        <v>118.3517937444931</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="V42" t="n">
-        <v>118.3517937444931</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="W42" t="n">
-        <v>83.13413836268582</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="X42" t="n">
-        <v>43.15042425981653</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.166710156947247</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="C43" t="n">
-        <v>3.166710156947247</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="D43" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="E43" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="F43" t="n">
-        <v>3.166710156947247</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="G43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L43" t="n">
-        <v>30.48083516466022</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="M43" t="n">
-        <v>69.6688733568824</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="N43" t="n">
-        <v>108.8569115491046</v>
+        <v>81.11820435738666</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1961881840039</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="P43" t="n">
-        <v>133.1961881840039</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.21247408113457</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="R43" t="n">
-        <v>83.13413836268582</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="S43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="T43" t="n">
-        <v>43.15042425981653</v>
+        <v>105.4574809922859</v>
       </c>
       <c r="U43" t="n">
-        <v>43.15042425981653</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="V43" t="n">
-        <v>43.15042425981653</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="W43" t="n">
-        <v>3.166710156947247</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="X43" t="n">
-        <v>3.166710156947247</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.166710156947247</v>
+        <v>55.85725136607994</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>52.65496954478485</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>25.79018916479258</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>27.39401655347812</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>53.72418780390855</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>80.05435905433897</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>52.65496954478485</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>28.45786185652581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>54.78803310695623</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>81.11820435738666</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>79.51974992477713</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>28.45786185652582</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>54.78803310695625</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.11820435738667</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>106.3845303047694</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.72203174607222</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>55.85725136607994</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>28.99247098608766</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.127690606095388</v>
       </c>
     </row>
   </sheetData>
@@ -9167,16 +9169,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>236.760307654111</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>231.3401259113965</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>230.4069562807147</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>231.0519468256439</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9246,16 +9248,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>139.548272463998</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>143.1279266061421</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>132.2954474872905</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>143.5901371285682</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9325,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>135.8785689653621</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>139.9196766317288</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>128.679437149357</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>139.4102738558</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9401,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>259.6737280068211</v>
+        <v>221.0837437291043</v>
       </c>
       <c r="L20" t="n">
-        <v>275.3502919318278</v>
+        <v>236.760307654111</v>
       </c>
       <c r="M20" t="n">
-        <v>269.9301101891133</v>
+        <v>231.2999686312299</v>
       </c>
       <c r="N20" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>232.2268884393933</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>139.548272463998</v>
       </c>
       <c r="M21" t="n">
-        <v>180.1185623197441</v>
+        <v>143.0877693259755</v>
       </c>
       <c r="N21" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>173.5582843761708</v>
+        <v>134.968300098454</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.9756667701453</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>135.8384116851955</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>139.9196766317288</v>
       </c>
       <c r="N22" t="n">
-        <v>167.2694214270738</v>
+        <v>128.679437149357</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>139.4504311359666</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>273.750943367713</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>268.9969405584315</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O23" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9717,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L24" t="n">
-        <v>176.5389081776</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M24" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
-        <v>170.9255890451739</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9802,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,16 +9877,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>258.0743794427063</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M26" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
-        <v>268.9969405584315</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>175.8259673720848</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10039,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>268.3307616249986</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P29" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10200,16 +10202,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>170.9255890451739</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>259.6737280068211</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L32" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
-        <v>268.3307616249986</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>169.3262404810591</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L35" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M35" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N35" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>170.9255890451739</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O36" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N38" t="n">
-        <v>267.3975919943167</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O38" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10908,16 +10910,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>180.1185623197441</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
-        <v>170.9255890451739</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O39" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P39" t="n">
-        <v>173.5582843761708</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -10987,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>246.6859836211729</v>
       </c>
       <c r="L41" t="n">
-        <v>275.3502919318278</v>
+        <v>262.3625475461796</v>
       </c>
       <c r="M41" t="n">
-        <v>269.9301101891133</v>
+        <v>255.8677745882654</v>
       </c>
       <c r="N41" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>268.0827398194126</v>
+        <v>256.6943439978791</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>177.4253159361996</v>
+        <v>164.4375715505514</v>
       </c>
       <c r="L42" t="n">
-        <v>178.1382567417148</v>
+        <v>164.0759211408669</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -11154,10 +11156,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>171.9589358120561</v>
+        <v>160.5705399905226</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.5656510478621</v>
+        <v>166.5779066622139</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>161.4808088574306</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>165.5219165237974</v>
       </c>
       <c r="N43" t="n">
-        <v>167.2694214270738</v>
+        <v>154.2816770414256</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>253.2744150797105</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>253.3738733961061</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>254.2058834288186</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>255.7052848083388</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>166.7279112213936</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>155.8825956434278</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>167.3122256963942</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>157.9869615805495</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.4958522384784</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.4834178702207</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.2678715646723</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23741,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>405.8821530575876</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>414.3088448310112</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>338.4809094316433</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>9.115278538368571</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23859,16 +23861,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>170.8077504276616</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>199.1708360106978</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>224.947489396851</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>231.8066944653015</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>85.16815056757059</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>176.2994986930457</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>226.9516967441577</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>285.6475776604148</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>381.8584209873043</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>302.8774788566905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>309.6570917555724</v>
+        <v>348.2470760332892</v>
       </c>
       <c r="X20" t="n">
-        <v>330.1472237166284</v>
+        <v>368.7372079943452</v>
       </c>
       <c r="Y20" t="n">
-        <v>346.654061694213</v>
+        <v>385.2440459719298</v>
       </c>
     </row>
     <row r="21">
@@ -24054,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>144.1937917172076</v>
       </c>
       <c r="G21" t="n">
-        <v>97.75964020137005</v>
+        <v>136.3496244790869</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.03894665091181</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>132.0992941419972</v>
+        <v>170.689278419714</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>204.6888030931806</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24144,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>161.3517518312633</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24175,16 +24177,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>223.0227053528485</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>226.9516967441577</v>
       </c>
       <c r="U22" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.6071009908305</v>
+        <v>217.590760667971</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>340.3724465859413</v>
       </c>
       <c r="E23" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>314.3754898894238</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="24">
@@ -24288,22 +24290,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>87.93414998721002</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24336,13 +24338,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>197.9351083214361</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24379,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24403,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>66.43472462629148</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,22 +24417,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W25" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.14996470164</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C26" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>392.5654507069698</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24522,22 +24524,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>87.93414998721002</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>60.57395719080255</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,16 +24618,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>342.3464931104212</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>170.8920126085653</v>
+        <v>196.1652945356643</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.9493066880268</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C30" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24816,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>193.2167101875847</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="31">
@@ -24880,31 +24882,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>214.039045675708</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24926,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G32" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,25 +24964,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U32" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>314.3754898894238</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>171.5638082755731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>139.7784131469302</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25126,16 +25128,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>188.3617124664409</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U34" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>276.5454459753267</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,22 +25201,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>125.5678236918632</v>
       </c>
       <c r="S35" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W35" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25236,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25281,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>132.0992941419972</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V36" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>170.9075063754883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25351,16 +25353,16 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>216.7604864108145</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.14996470164</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C38" t="n">
-        <v>325.689014809167</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D38" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>345.4298064291826</v>
       </c>
       <c r="Y38" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>186.3575051191342</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25606,16 +25608,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W40" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>186.1257784271966</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6071009908305</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="41">
@@ -25628,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25673,10 +25675,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>123.2729853649573</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>182.423937010053</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>330.1472237166284</v>
+        <v>343.1349681022767</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>362.8120650829434</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>120.8489329884464</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>173.5685961186292</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>216.8295043329304</v>
+        <v>228.2691095878094</v>
       </c>
       <c r="X42" t="n">
-        <v>166.1891082416369</v>
+        <v>179.1768526272851</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>122.01934044202</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>141.3948467822664</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25828,31 +25830,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>167.3158390159052</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8109346027393</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>191.9885207759024</v>
       </c>
     </row>
     <row r="44">
@@ -25874,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>380.2799131655191</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>391.8620946439615</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>122.3452334454895</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>359.6418060798612</v>
       </c>
     </row>
     <row r="45">
@@ -25953,19 +25955,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>121.6433388202737</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>110.7394823158894</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>85.56299235755959</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>173.5367444205265</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>228.7117697507178</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>259.9268657603986</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>199.1135228128448</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>191.9885207759024</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333272.9571474838</v>
+        <v>334147.2478335364</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367166.0848885818</v>
+        <v>334147.2478335363</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367166.0848885817</v>
+        <v>357473.856226488</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367166.0848885818</v>
+        <v>357473.8562264881</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367166.0848885818</v>
+        <v>357473.8562264881</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367166.0848885817</v>
+        <v>357473.8562264881</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367166.0848885818</v>
+        <v>357473.8562264881</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367166.0848885818</v>
+        <v>357473.856226488</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367166.0848885817</v>
+        <v>356634.3954042217</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333272.9571474838</v>
+        <v>357233.5903209012</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>69879.81359544014</v>
       </c>
       <c r="E2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="F2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="G2" t="n">
-        <v>69879.81359544014</v>
+        <v>70062.83293010978</v>
       </c>
       <c r="H2" t="n">
-        <v>76974.81962490579</v>
+        <v>70062.83293010978</v>
       </c>
       <c r="I2" t="n">
-        <v>76974.81962490578</v>
+        <v>74945.90033124234</v>
       </c>
       <c r="J2" t="n">
-        <v>76974.81962490579</v>
+        <v>74945.9003312423</v>
       </c>
       <c r="K2" t="n">
-        <v>76974.81962490578</v>
+        <v>74945.90033124233</v>
       </c>
       <c r="L2" t="n">
-        <v>76974.81962490579</v>
+        <v>74945.9003312423</v>
       </c>
       <c r="M2" t="n">
-        <v>76974.81962490578</v>
+        <v>74945.90033124229</v>
       </c>
       <c r="N2" t="n">
-        <v>76974.81962490578</v>
+        <v>74945.90033124229</v>
       </c>
       <c r="O2" t="n">
-        <v>76974.81962490577</v>
+        <v>74770.17209391424</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544014</v>
+        <v>74954.63031988787</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>272.4110763280689</v>
       </c>
       <c r="H3" t="n">
-        <v>10680.08625919725</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7072.470170793646</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2445.23496903265</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26432,34 @@
         <v>26876.8513828616</v>
       </c>
       <c r="G4" t="n">
-        <v>26876.8513828616</v>
+        <v>26949.53453398653</v>
       </c>
       <c r="H4" t="n">
-        <v>29694.5175950296</v>
+        <v>26949.53453398653</v>
       </c>
       <c r="I4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="J4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="K4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="L4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="M4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="N4" t="n">
-        <v>29694.5175950296</v>
+        <v>28888.76530712043</v>
       </c>
       <c r="O4" t="n">
-        <v>29694.5175950296</v>
+        <v>28818.97769668192</v>
       </c>
       <c r="P4" t="n">
-        <v>26876.8513828616</v>
+        <v>28609.42794882261</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>60.4286751947264</v>
       </c>
       <c r="H5" t="n">
-        <v>2406.699719279908</v>
+        <v>60.4286751947264</v>
       </c>
       <c r="I5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>2406.699719279908</v>
+        <v>1617.044860632495</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1697.135071705177</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>9375.36221257854</v>
       </c>
       <c r="E6" t="n">
-        <v>43002.96221257854</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="F6" t="n">
-        <v>43002.96221257854</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="G6" t="n">
-        <v>43002.96221257854</v>
+        <v>42780.45864460046</v>
       </c>
       <c r="H6" t="n">
-        <v>34193.51605139905</v>
+        <v>43052.86972092852</v>
       </c>
       <c r="I6" t="n">
-        <v>44873.60231059627</v>
+        <v>37307.19131750104</v>
       </c>
       <c r="J6" t="n">
-        <v>44873.60231059629</v>
+        <v>44379.66148829465</v>
       </c>
       <c r="K6" t="n">
-        <v>44873.60231059627</v>
+        <v>44379.66148829467</v>
       </c>
       <c r="L6" t="n">
-        <v>44873.60231059629</v>
+        <v>44379.66148829465</v>
       </c>
       <c r="M6" t="n">
-        <v>44873.60231059627</v>
+        <v>44379.66148829463</v>
       </c>
       <c r="N6" t="n">
-        <v>44873.60231059627</v>
+        <v>44379.66148829463</v>
       </c>
       <c r="O6" t="n">
-        <v>44873.60231059626</v>
+        <v>44334.14953659983</v>
       </c>
       <c r="P6" t="n">
-        <v>43002.96221257854</v>
+        <v>42202.83233032744</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
     </row>
     <row r="4">
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="L20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M20" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9537354039571716</v>
       </c>
       <c r="N20" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="M21" t="n">
-        <v>37.98452839772582</v>
+        <v>0.9537354039571718</v>
       </c>
       <c r="N21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>0.9537354039571718</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="N22" t="n">
-        <v>39.58387696184059</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>0.9938926841237894</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L24" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M35" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N35" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N38" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P39" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="L41" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.52154136099267</v>
       </c>
       <c r="N41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>37.98452839772582</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="L42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.52154136099266</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>37.98452839772582</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.59002526031614</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M43" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N43" t="n">
-        <v>39.58387696184059</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
@@ -38023,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>25.52154136099266</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>25.52154136099267</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>26.59613257619235</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
